--- a/public/assets/addBankAccountBulk.xlsx
+++ b/public/assets/addBankAccountBulk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zulma\Documents\Project\Vonix\web-automation\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3012E7-BE25-4C24-AAEB-C1E5852A9F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC34AF2-CFAB-450A-ADFA-98749C25DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{0C4D0067-6B16-4E64-98B2-278872FD6947}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{0C4D0067-6B16-4E64-98B2-278872FD6947}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>label</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>bankCode</t>
   </si>
@@ -400,49 +397,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EBD24D-6A17-4EAB-A5B3-4C9AA28D5EF4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="str">
+        <f>TEXT(D2,0)</f>
+        <v>1069156468</v>
+      </c>
+      <c r="D2">
+        <v>1069156468</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1069156468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="str">
+        <f>TEXT(D3,0)</f>
+        <v>1973783039</v>
+      </c>
+      <c r="D3">
         <v>1973783039</v>
       </c>
     </row>
